--- a/assets/excel/lambda_ber_schema.xlsx
+++ b/assets/excel/lambda_ber_schema.xlsx
@@ -2928,7 +2928,7 @@
   </sheetData>
   <dataValidations count="5">
     <dataValidation sqref="A2:A1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"cryo_em,xray_crystallography,saxs,waxs,sans,cryo_et,electron_microscopy,mass_spectrometry,xas,xanes,exafs,xmcd"</formula1>
+      <formula1>"cryo_em,xray_crystallography,saxs,waxs,sans,cryo_et,electron_microscopy,mass_spectrometry,xas,xanes,exafs,xmcd,neutron_crystallography,fiber_diffraction,time_resolved_crystallography"</formula1>
     </dataValidation>
     <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"synchrotron,rotating_anode,microfocus,metal_jet"</formula1>
@@ -3322,7 +3322,7 @@
   </sheetData>
   <dataValidations count="3">
     <dataValidation sqref="F2:F1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"cryo_em,xray_crystallography,saxs,waxs,sans,cryo_et,electron_microscopy,mass_spectrometry,xas,xanes,exafs,xmcd"</formula1>
+      <formula1>"cryo_em,xray_crystallography,saxs,waxs,sans,cryo_et,electron_microscopy,mass_spectrometry,xas,xanes,exafs,xmcd,neutron_crystallography,fiber_diffraction,time_resolved_crystallography"</formula1>
     </dataValidation>
     <dataValidation sqref="G2:G1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"x_ray_diffraction,neutron_diffraction,electron_diffraction,fiber_diffraction"</formula1>

--- a/assets/excel/lambda_ber_schema.xlsx
+++ b/assets/excel/lambda_ber_schema.xlsx
@@ -66,6 +66,14 @@
     <sheet name="ParticlePickingParameters" sheetId="57" state="visible" r:id="rId57"/>
     <sheet name="RefinementParameters" sheetId="58" state="visible" r:id="rId58"/>
     <sheet name="FSCCurve" sheetId="59" state="visible" r:id="rId59"/>
+    <sheet name="StudySampleAssociation" sheetId="60" state="visible" r:id="rId60"/>
+    <sheet name="StudyExperimentAssociation" sheetId="61" state="visible" r:id="rId61"/>
+    <sheet name="StudyWorkflowAssociation" sheetId="62" state="visible" r:id="rId62"/>
+    <sheet name="ExperimentSampleAssociation" sheetId="63" state="visible" r:id="rId63"/>
+    <sheet name="ExperimentInstrumentAssociation" sheetId="64" state="visible" r:id="rId64"/>
+    <sheet name="WorkflowExperimentAssociation" sheetId="65" state="visible" r:id="rId65"/>
+    <sheet name="WorkflowInputAssociation" sheetId="66" state="visible" r:id="rId66"/>
+    <sheet name="WorkflowOutputAssociation" sheetId="67" state="visible" r:id="rId67"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1491,7 +1499,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1507,25 +1515,100 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>studies</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>instruments</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>studies</t>
-        </is>
-      </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>protein_constructs</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>samples</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>sample_preparations</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>experiment_runs</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>workflow_runs</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>data_files</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>images</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>study_sample_associations</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>study_experiment_associations</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>study_workflow_associations</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>experiment_sample_associations</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>experiment_instrument_associations</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>workflow_experiment_associations</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>workflow_input_associations</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>workflow_output_associations</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
@@ -1542,7 +1625,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1553,55 +1636,20 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>protein_constructs</t>
+          <t>keywords</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>samples</t>
+          <t>id</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>sample_preparations</t>
+          <t>title</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
-        <is>
-          <t>instrument_runs</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>workflow_runs</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>data_files</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>images</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>aggregated_protein_views</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
@@ -3009,7 +3057,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BH1"/>
+  <dimension ref="A1:BF1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3025,295 +3073,285 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>sample_id</t>
+          <t>experiment_date</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>instrument_id</t>
+          <t>operator_id</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>experiment_date</t>
+          <t>technique</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>operator_id</t>
+          <t>experimental_method</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>technique</t>
+          <t>experimental_conditions</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>experimental_method</t>
+          <t>data_collection_strategy</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>experimental_conditions</t>
+          <t>quality_metrics</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>data_collection_strategy</t>
+          <t>raw_data_location</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>quality_metrics</t>
+          <t>processing_status</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>raw_data_location</t>
+          <t>magnification</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>processing_status</t>
+          <t>calibrated_pixel_size</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>magnification</t>
+          <t>camera_binning</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>calibrated_pixel_size</t>
+          <t>exposure_time_per_frame</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>camera_binning</t>
+          <t>frames_per_movie</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>exposure_time_per_frame</t>
+          <t>total_exposure_time</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>frames_per_movie</t>
+          <t>total_dose</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>total_exposure_time</t>
+          <t>dose_rate</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>total_dose</t>
+          <t>defocus_target</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>dose_rate</t>
+          <t>defocus_range_min</t>
         </is>
       </c>
       <c r="U1" t="inlineStr">
         <is>
-          <t>defocus_target</t>
+          <t>defocus_range_max</t>
         </is>
       </c>
       <c r="V1" t="inlineStr">
         <is>
-          <t>defocus_range_min</t>
+          <t>defocus_range_increment</t>
         </is>
       </c>
       <c r="W1" t="inlineStr">
         <is>
-          <t>defocus_range_max</t>
+          <t>astigmatism_target</t>
         </is>
       </c>
       <c r="X1" t="inlineStr">
         <is>
-          <t>defocus_range_increment</t>
+          <t>coma</t>
         </is>
       </c>
       <c r="Y1" t="inlineStr">
         <is>
-          <t>astigmatism_target</t>
+          <t>stage_tilt</t>
         </is>
       </c>
       <c r="Z1" t="inlineStr">
         <is>
-          <t>coma</t>
+          <t>autoloader_slot</t>
         </is>
       </c>
       <c r="AA1" t="inlineStr">
         <is>
-          <t>stage_tilt</t>
+          <t>shots_per_hole</t>
         </is>
       </c>
       <c r="AB1" t="inlineStr">
         <is>
-          <t>autoloader_slot</t>
+          <t>holes_per_group</t>
         </is>
       </c>
       <c r="AC1" t="inlineStr">
         <is>
-          <t>shots_per_hole</t>
+          <t>acquisition_software</t>
         </is>
       </c>
       <c r="AD1" t="inlineStr">
         <is>
-          <t>holes_per_group</t>
+          <t>acquisition_software_version</t>
         </is>
       </c>
       <c r="AE1" t="inlineStr">
         <is>
-          <t>acquisition_software</t>
+          <t>wavelength</t>
         </is>
       </c>
       <c r="AF1" t="inlineStr">
         <is>
-          <t>acquisition_software_version</t>
+          <t>oscillation_angle</t>
         </is>
       </c>
       <c r="AG1" t="inlineStr">
         <is>
-          <t>wavelength</t>
+          <t>start_angle</t>
         </is>
       </c>
       <c r="AH1" t="inlineStr">
         <is>
-          <t>oscillation_angle</t>
+          <t>number_of_images</t>
         </is>
       </c>
       <c r="AI1" t="inlineStr">
         <is>
-          <t>start_angle</t>
+          <t>beam_center_x</t>
         </is>
       </c>
       <c r="AJ1" t="inlineStr">
         <is>
-          <t>number_of_images</t>
+          <t>beam_center_y</t>
         </is>
       </c>
       <c r="AK1" t="inlineStr">
         <is>
-          <t>beam_center_x</t>
+          <t>detector_distance</t>
         </is>
       </c>
       <c r="AL1" t="inlineStr">
         <is>
-          <t>beam_center_y</t>
+          <t>pixel_size_x</t>
         </is>
       </c>
       <c r="AM1" t="inlineStr">
         <is>
-          <t>detector_distance</t>
+          <t>pixel_size_y</t>
         </is>
       </c>
       <c r="AN1" t="inlineStr">
         <is>
-          <t>pixel_size_x</t>
+          <t>total_rotation</t>
         </is>
       </c>
       <c r="AO1" t="inlineStr">
         <is>
-          <t>pixel_size_y</t>
+          <t>beamline</t>
         </is>
       </c>
       <c r="AP1" t="inlineStr">
         <is>
-          <t>total_rotation</t>
+          <t>transmission</t>
         </is>
       </c>
       <c r="AQ1" t="inlineStr">
         <is>
-          <t>beamline</t>
+          <t>flux</t>
         </is>
       </c>
       <c r="AR1" t="inlineStr">
         <is>
-          <t>transmission</t>
+          <t>flux_end</t>
         </is>
       </c>
       <c r="AS1" t="inlineStr">
         <is>
-          <t>flux</t>
+          <t>slit_gap_horizontal</t>
         </is>
       </c>
       <c r="AT1" t="inlineStr">
         <is>
-          <t>flux_end</t>
+          <t>slit_gap_vertical</t>
         </is>
       </c>
       <c r="AU1" t="inlineStr">
         <is>
-          <t>slit_gap_horizontal</t>
+          <t>undulator_gap</t>
         </is>
       </c>
       <c r="AV1" t="inlineStr">
         <is>
-          <t>slit_gap_vertical</t>
+          <t>synchrotron_mode</t>
         </is>
       </c>
       <c r="AW1" t="inlineStr">
         <is>
-          <t>undulator_gap</t>
+          <t>exposure_time</t>
         </is>
       </c>
       <c r="AX1" t="inlineStr">
         <is>
-          <t>synchrotron_mode</t>
+          <t>start_time</t>
         </is>
       </c>
       <c r="AY1" t="inlineStr">
         <is>
-          <t>exposure_time</t>
+          <t>end_time</t>
         </is>
       </c>
       <c r="AZ1" t="inlineStr">
         <is>
-          <t>start_time</t>
+          <t>resolution</t>
         </is>
       </c>
       <c r="BA1" t="inlineStr">
         <is>
-          <t>end_time</t>
+          <t>resolution_at_corner</t>
         </is>
       </c>
       <c r="BB1" t="inlineStr">
         <is>
-          <t>resolution</t>
+          <t>ispyb_data_collection_id</t>
         </is>
       </c>
       <c r="BC1" t="inlineStr">
         <is>
-          <t>resolution_at_corner</t>
+          <t>ispyb_session_id</t>
         </is>
       </c>
       <c r="BD1" t="inlineStr">
         <is>
-          <t>ispyb_data_collection_id</t>
+          <t>id</t>
         </is>
       </c>
       <c r="BE1" t="inlineStr">
         <is>
-          <t>ispyb_session_id</t>
+          <t>title</t>
         </is>
       </c>
       <c r="BF1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
@@ -3321,13 +3359,13 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation sqref="F2:F1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="D2:D1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"cryo_em,xray_crystallography,saxs,waxs,sans,cryo_et,electron_microscopy,mass_spectrometry,xas,xanes,exafs,xmcd"</formula1>
     </dataValidation>
-    <dataValidation sqref="G2:G1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"x_ray_diffraction,neutron_diffraction,electron_diffraction,fiber_diffraction"</formula1>
     </dataValidation>
-    <dataValidation sqref="L2:L1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="J2:J1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"raw,preprocessing,processing,completed,failed"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3341,7 +3379,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ1"/>
+  <dimension ref="A1:BP1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3362,335 +3400,330 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>experiment_id</t>
+          <t>processing_level</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>processing_level</t>
+          <t>software_name</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>software_name</t>
+          <t>software_version</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>software_version</t>
+          <t>additional_software</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>additional_software</t>
+          <t>processing_parameters</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>processing_parameters</t>
+          <t>parameters_file_path</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>parameters_file_path</t>
+          <t>indexer_module</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>indexer_module</t>
+          <t>integrator_module</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>integrator_module</t>
+          <t>scaler_module</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>scaler_module</t>
+          <t>outlier_rejection_method</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>outlier_rejection_method</t>
+          <t>phasing_method</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>phasing_method</t>
+          <t>search_model_pdb_id</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>search_model_pdb_id</t>
+          <t>tls_used</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>tls_used</t>
+          <t>ncs_used</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>ncs_used</t>
+          <t>restraints_other</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>restraints_other</t>
+          <t>ligands_cofactors</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>ligands_cofactors</t>
+          <t>number_of_waters</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>number_of_waters</t>
+          <t>refinement_resolution_a</t>
         </is>
       </c>
       <c r="U1" t="inlineStr">
         <is>
-          <t>refinement_resolution_a</t>
+          <t>deposited_to_pdb</t>
         </is>
       </c>
       <c r="V1" t="inlineStr">
         <is>
-          <t>deposited_to_pdb</t>
+          <t>pdb_id</t>
         </is>
       </c>
       <c r="W1" t="inlineStr">
         <is>
-          <t>pdb_id</t>
+          <t>validation_report_path</t>
         </is>
       </c>
       <c r="X1" t="inlineStr">
         <is>
-          <t>validation_report_path</t>
+          <t>space_group</t>
         </is>
       </c>
       <c r="Y1" t="inlineStr">
         <is>
-          <t>space_group</t>
+          <t>unit_cell_a</t>
         </is>
       </c>
       <c r="Z1" t="inlineStr">
         <is>
-          <t>unit_cell_a</t>
+          <t>unit_cell_b</t>
         </is>
       </c>
       <c r="AA1" t="inlineStr">
         <is>
-          <t>unit_cell_b</t>
+          <t>unit_cell_c</t>
         </is>
       </c>
       <c r="AB1" t="inlineStr">
         <is>
-          <t>unit_cell_c</t>
+          <t>unit_cell_alpha</t>
         </is>
       </c>
       <c r="AC1" t="inlineStr">
         <is>
-          <t>unit_cell_alpha</t>
+          <t>unit_cell_beta</t>
         </is>
       </c>
       <c r="AD1" t="inlineStr">
         <is>
-          <t>unit_cell_beta</t>
+          <t>unit_cell_gamma</t>
         </is>
       </c>
       <c r="AE1" t="inlineStr">
         <is>
-          <t>unit_cell_gamma</t>
+          <t>resolution_high</t>
         </is>
       </c>
       <c r="AF1" t="inlineStr">
         <is>
-          <t>resolution_high</t>
+          <t>resolution_low</t>
         </is>
       </c>
       <c r="AG1" t="inlineStr">
         <is>
-          <t>resolution_low</t>
+          <t>rmerge</t>
         </is>
       </c>
       <c r="AH1" t="inlineStr">
         <is>
-          <t>rmerge</t>
+          <t>rpim</t>
         </is>
       </c>
       <c r="AI1" t="inlineStr">
         <is>
-          <t>rpim</t>
+          <t>cc_half</t>
         </is>
       </c>
       <c r="AJ1" t="inlineStr">
         <is>
-          <t>cc_half</t>
+          <t>completeness_percent</t>
         </is>
       </c>
       <c r="AK1" t="inlineStr">
         <is>
-          <t>completeness_percent</t>
+          <t>i_over_sigma</t>
         </is>
       </c>
       <c r="AL1" t="inlineStr">
         <is>
-          <t>i_over_sigma</t>
+          <t>wilson_b_factor</t>
         </is>
       </c>
       <c r="AM1" t="inlineStr">
         <is>
-          <t>wilson_b_factor</t>
+          <t>multiplicity</t>
         </is>
       </c>
       <c r="AN1" t="inlineStr">
         <is>
-          <t>multiplicity</t>
+          <t>anomalous_completeness</t>
         </is>
       </c>
       <c r="AO1" t="inlineStr">
         <is>
-          <t>anomalous_completeness</t>
+          <t>anomalous_multiplicity</t>
         </is>
       </c>
       <c r="AP1" t="inlineStr">
         <is>
-          <t>anomalous_multiplicity</t>
+          <t>cc_anomalous</t>
         </is>
       </c>
       <c r="AQ1" t="inlineStr">
         <is>
-          <t>cc_anomalous</t>
+          <t>r_anomalous</t>
         </is>
       </c>
       <c r="AR1" t="inlineStr">
         <is>
-          <t>r_anomalous</t>
+          <t>sig_anomalous</t>
         </is>
       </c>
       <c r="AS1" t="inlineStr">
         <is>
-          <t>sig_anomalous</t>
+          <t>n_total_observations</t>
         </is>
       </c>
       <c r="AT1" t="inlineStr">
         <is>
-          <t>n_total_observations</t>
+          <t>n_total_unique</t>
         </is>
       </c>
       <c r="AU1" t="inlineStr">
         <is>
-          <t>n_total_unique</t>
+          <t>ispyb_auto_proc_program_id</t>
         </is>
       </c>
       <c r="AV1" t="inlineStr">
         <is>
-          <t>ispyb_auto_proc_program_id</t>
+          <t>ispyb_auto_proc_scaling_id</t>
         </is>
       </c>
       <c r="AW1" t="inlineStr">
         <is>
-          <t>ispyb_auto_proc_scaling_id</t>
+          <t>rwork</t>
         </is>
       </c>
       <c r="AX1" t="inlineStr">
         <is>
-          <t>rwork</t>
+          <t>rfree</t>
         </is>
       </c>
       <c r="AY1" t="inlineStr">
         <is>
-          <t>rfree</t>
+          <t>rmsd_bonds</t>
         </is>
       </c>
       <c r="AZ1" t="inlineStr">
         <is>
-          <t>rmsd_bonds</t>
+          <t>rmsd_angles</t>
         </is>
       </c>
       <c r="BA1" t="inlineStr">
         <is>
-          <t>rmsd_angles</t>
+          <t>ramachandran_favored</t>
         </is>
       </c>
       <c r="BB1" t="inlineStr">
         <is>
-          <t>ramachandran_favored</t>
+          <t>ramachandran_outliers</t>
         </is>
       </c>
       <c r="BC1" t="inlineStr">
         <is>
-          <t>ramachandran_outliers</t>
+          <t>clashscore</t>
         </is>
       </c>
       <c r="BD1" t="inlineStr">
         <is>
-          <t>clashscore</t>
+          <t>processing_notes</t>
         </is>
       </c>
       <c r="BE1" t="inlineStr">
         <is>
-          <t>processing_notes</t>
+          <t>compute_resources</t>
         </is>
       </c>
       <c r="BF1" t="inlineStr">
         <is>
-          <t>compute_resources</t>
+          <t>started_at</t>
         </is>
       </c>
       <c r="BG1" t="inlineStr">
         <is>
-          <t>started_at</t>
+          <t>completed_at</t>
         </is>
       </c>
       <c r="BH1" t="inlineStr">
         <is>
-          <t>completed_at</t>
+          <t>motion_correction_params</t>
         </is>
       </c>
       <c r="BI1" t="inlineStr">
         <is>
-          <t>motion_correction_params</t>
+          <t>ctf_estimation_params</t>
         </is>
       </c>
       <c r="BJ1" t="inlineStr">
         <is>
-          <t>ctf_estimation_params</t>
+          <t>particle_picking_params</t>
         </is>
       </c>
       <c r="BK1" t="inlineStr">
         <is>
-          <t>particle_picking_params</t>
+          <t>refinement_params</t>
         </is>
       </c>
       <c r="BL1" t="inlineStr">
         <is>
-          <t>refinement_params</t>
+          <t>fsc_curve</t>
         </is>
       </c>
       <c r="BM1" t="inlineStr">
         <is>
-          <t>fsc_curve</t>
+          <t>output_files</t>
         </is>
       </c>
       <c r="BN1" t="inlineStr">
         <is>
-          <t>output_files</t>
+          <t>id</t>
         </is>
       </c>
       <c r="BO1" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>title</t>
         </is>
       </c>
       <c r="BP1" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
@@ -3698,7 +3731,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="N2:N1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="M2:M1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"molecular_replacement,sad,mad,sir,mir,siras,miras,fragile_mr"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6321,6 +6354,314 @@
   <dataValidations count="1">
     <dataValidation sqref="F2:F1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"experimental,predicted,inferred,literature,author_statement,curator_inference"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>study_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>sample_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>date_added</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="C2:C1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"target,control,reference,blank"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>study_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>experiment_id</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>study_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>workflow_id</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>experiment_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>sample_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>preparation_id</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="C2:C1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"target,buffer_blank,standard,size_marker"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>experiment_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>instrument_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="C2:C1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"primary,detector,sample_handler"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>workflow_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>experiment_id</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>workflow_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>file_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>input_type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="C2:C1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"raw_data,reference,parameters,mask"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>workflow_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>file_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>output_type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="C2:C1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"processed_data,model,map,log,statistics"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/assets/excel/lambda_ber_schema.xlsx
+++ b/assets/excel/lambda_ber_schema.xlsx
@@ -2976,7 +2976,7 @@
   </sheetData>
   <dataValidations count="5">
     <dataValidation sqref="A2:A1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"cryo_em,xray_crystallography,saxs,waxs,sans,cryo_et,electron_microscopy,mass_spectrometry,xas,xanes,exafs,xmcd"</formula1>
+      <formula1>"cryo_em,xray_crystallography,saxs,waxs,sans,cryo_et,electron_microscopy,mass_spectrometry,xas,xanes,exafs,xmcd,neutron_crystallography,fiber_diffraction,time_resolved_crystallography"</formula1>
     </dataValidation>
     <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"synchrotron,rotating_anode,microfocus,metal_jet"</formula1>
@@ -3360,7 +3360,7 @@
   </sheetData>
   <dataValidations count="3">
     <dataValidation sqref="D2:D1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"cryo_em,xray_crystallography,saxs,waxs,sans,cryo_et,electron_microscopy,mass_spectrometry,xas,xanes,exafs,xmcd"</formula1>
+      <formula1>"cryo_em,xray_crystallography,saxs,waxs,sans,cryo_et,electron_microscopy,mass_spectrometry,xas,xanes,exafs,xmcd,neutron_crystallography,fiber_diffraction,time_resolved_crystallography"</formula1>
     </dataValidation>
     <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"x_ray_diffraction,neutron_diffraction,electron_diffraction,fiber_diffraction"</formula1>

--- a/assets/excel/lambda_ber_schema.xlsx
+++ b/assets/excel/lambda_ber_schema.xlsx
@@ -6661,7 +6661,7 @@
   </sheetData>
   <dataValidations count="1">
     <dataValidation sqref="C2:C1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"processed_data,model,map,log,statistics"</formula1>
+      <formula1>""</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/assets/excel/lambda_ber_schema.xlsx
+++ b/assets/excel/lambda_ber_schema.xlsx
@@ -6661,7 +6661,7 @@
   </sheetData>
   <dataValidations count="1">
     <dataValidation sqref="C2:C1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>""</formula1>
+      <formula1>"map,model,particles,micrographs,ctf_estimates,metadata,statistics,processed_data,log"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
